--- a/data/trans_bre/P19C02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 14,44</t>
+          <t>-0,25; 15,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 6,74</t>
+          <t>-9,1; 7,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 2,06</t>
+          <t>-12,63; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 6,61</t>
+          <t>-6,45; 6,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 46,23</t>
+          <t>-0,58; 49,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 17,6</t>
+          <t>-20,43; 19,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 4,6</t>
+          <t>-24,03; 6,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 12,54</t>
+          <t>-10,91; 11,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 8,32</t>
+          <t>-7,79; 7,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 7,61</t>
+          <t>-8,58; 7,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 14,23</t>
+          <t>-0,88; 14,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 10,82</t>
+          <t>-2,54; 10,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 23,35</t>
+          <t>-18,09; 22,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 19,62</t>
+          <t>-19,25; 18,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 40,21</t>
+          <t>-2,04; 40,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 20,97</t>
+          <t>-4,24; 20,5</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 13,1</t>
+          <t>-5,23; 13,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,58</t>
+          <t>-5,89; 8,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 15,84</t>
+          <t>-3,62; 14,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 46,83</t>
+          <t>6,69; 49,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 47,09</t>
+          <t>-16,38; 45,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 30,23</t>
+          <t>-17,64; 29,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 55,13</t>
+          <t>-9,57; 51,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 348,53</t>
+          <t>13,53; 492,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 9,88</t>
+          <t>0,57; 10,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 15,41</t>
+          <t>6,52; 15,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,44</t>
+          <t>4,16; 13,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 36,82</t>
+          <t>6,01; 37,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 46,24</t>
+          <t>2,16; 46,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 68,93</t>
+          <t>24,26; 69,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,84; 48,88</t>
+          <t>13,22; 47,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 95,81</t>
+          <t>14,42; 96,12</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 12,22</t>
+          <t>-0,6; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 12,28</t>
+          <t>1,25; 11,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,08</t>
+          <t>-5,3; 7,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 5,69</t>
+          <t>-12,9; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 88,2</t>
+          <t>-2,3; 91,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 73,96</t>
+          <t>4,25; 70,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 25,13</t>
+          <t>-14,62; 26,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 15,72</t>
+          <t>-31,13; 14,04</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,35; -1,1</t>
+          <t>-14,0; -0,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 4,78</t>
+          <t>-8,37; 5,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 7,39</t>
+          <t>-6,06; 7,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 0,1</t>
+          <t>-23,13; -1,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,45; -3,64</t>
+          <t>-38,83; -3,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 21,93</t>
+          <t>-26,37; 23,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 28,16</t>
+          <t>-16,74; 28,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 0,93</t>
+          <t>-35,97; -2,41</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,82</t>
+          <t>-2,28; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,91</t>
+          <t>-0,75; 3,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,14</t>
+          <t>-0,15; 4,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 19,56</t>
+          <t>0,4; 17,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 10,19</t>
+          <t>-7,55; 11,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 13,63</t>
+          <t>-2,39; 13,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 15,36</t>
+          <t>-0,45; 14,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 57,26</t>
+          <t>0,88; 48,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
